--- a/storage/app/Colombo_masterlist_upload.xlsx
+++ b/storage/app/Colombo_masterlist_upload.xlsx
@@ -505,7 +505,9 @@
       </c>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2"/>
+      <c r="A2">
+        <v>6</v>
+      </c>
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>

--- a/storage/app/Colombo_masterlist_upload.xlsx
+++ b/storage/app/Colombo_masterlist_upload.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>No</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>colombo3</t>
+  </si>
+  <si>
+    <t>oo</t>
   </si>
 </sst>
 </file>
@@ -508,7 +511,9 @@
       <c r="A2">
         <v>6</v>
       </c>
-      <c r="B2"/>
+      <c r="B2">
+        <v>7</v>
+      </c>
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
@@ -535,7 +540,9 @@
       <c r="X2"/>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3"/>
+      <c r="A3">
+        <v>8</v>
+      </c>
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3"/>
@@ -561,7 +568,9 @@
       <c r="X3"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4"/>
+      <c r="A4">
+        <v>9</v>
+      </c>
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4"/>
@@ -587,10 +596,14 @@
       <c r="X4"/>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5"/>
+      <c r="A5">
+        <v>10</v>
+      </c>
       <c r="B5"/>
       <c r="C5"/>
-      <c r="D5"/>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>

--- a/storage/app/Colombo_masterlist_upload.xlsx
+++ b/storage/app/Colombo_masterlist_upload.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>No</t>
   </si>
@@ -54,45 +54,6 @@
   </si>
   <si>
     <t>RE</t>
-  </si>
-  <si>
-    <t>PP Size Pic</t>
-  </si>
-  <si>
-    <t>BCC</t>
-  </si>
-  <si>
-    <t>PPT Copy</t>
-  </si>
-  <si>
-    <t>License Copy</t>
-  </si>
-  <si>
-    <t>Police Reporter</t>
-  </si>
-  <si>
-    <t>Working Video</t>
-  </si>
-  <si>
-    <t>Myself Video</t>
-  </si>
-  <si>
-    <t>Edu Cert</t>
-  </si>
-  <si>
-    <t>Other Cert</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Remarks</t>
-  </si>
-  <si>
-    <t>colombo3</t>
-  </si>
-  <si>
-    <t>oo</t>
   </si>
 </sst>
 </file>
@@ -473,47 +434,23 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
     </row>
     <row r="2" spans="1:24">
       <c r="A2">
-        <v>6</v>
+        <v>1</v>
       </c>
-      <c r="B2">
-        <v>7</v>
-      </c>
+      <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
@@ -521,9 +458,7 @@
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
+      <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
@@ -541,7 +476,7 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -569,7 +504,7 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B4"/>
       <c r="C4"/>
@@ -597,13 +532,11 @@
     </row>
     <row r="5" spans="1:24">
       <c r="A5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
+      <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
@@ -626,7 +559,9 @@
       <c r="X5"/>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6"/>
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
@@ -652,7 +587,9 @@
       <c r="X6"/>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7"/>
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7"/>
@@ -678,7 +615,9 @@
       <c r="X7"/>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8"/>
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
@@ -704,7 +643,9 @@
       <c r="X8"/>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9"/>
+      <c r="A9">
+        <v>8</v>
+      </c>
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
@@ -730,7 +671,9 @@
       <c r="X9"/>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10"/>
+      <c r="A10">
+        <v>9</v>
+      </c>
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
@@ -756,7 +699,9 @@
       <c r="X10"/>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11"/>
+      <c r="A11">
+        <v>10</v>
+      </c>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
